--- a/data/trans_dic/P27-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas</t>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56,96%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>56,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>63,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>69,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>66,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>57,42%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>55,22%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>65,7%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>52,3%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,06; 66,66</t>
+          <t>36,63; 60,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,46; 56,72</t>
+          <t>41,47; 57,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,19; 67,3</t>
+          <t>52,35; 67,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,29; 70,27</t>
+          <t>46,43; 71,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,84; 73,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,16; 63,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,46; 75,73</t>
+          <t>55,49; 71,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,86; 73,66</t>
+          <t>53,86; 65,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,5; 67,31</t>
+          <t>64,92; 74,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,58; 58,47</t>
+          <t>40,77; 58,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,01; 70,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,55; 71,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>50,13; 64,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>50,57; 60,23</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>61,12; 69,85</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>45,52; 60,53</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>48,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>59,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>61,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>52,09%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>52,88%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>54,62%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>49,86%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,48; 50,07</t>
+          <t>38,06; 50,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,26; 48,06</t>
+          <t>39,93; 50,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,09; 52,42</t>
+          <t>43,45; 52,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,91; 57,59</t>
+          <t>39,58; 52,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,26; 60,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,21; 63,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,45; 65,16</t>
+          <t>54,27; 64,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,32; 69,31</t>
+          <t>56,22; 64,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,74; 54,26</t>
+          <t>57,47; 65,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 54,06</t>
+          <t>48,61; 59,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,72; 57,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,91; 61,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>47,79; 55,87</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>49,63; 56,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>51,68; 58,0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>45,62; 53,9</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>50,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,21%</t>
+          <t>52,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>57,8%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>57,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>60,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>52,23%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>52,94%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>55,14%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>51,11%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,78; 52,96</t>
+          <t>43,23; 56,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,29; 52,81</t>
+          <t>43,86; 54,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,59; 56,45</t>
+          <t>47,18; 57,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,96; 67,61</t>
+          <t>45,87; 59,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,68; 56,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,35; 59,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,21; 61,66</t>
+          <t>47,83; 59,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,71; 66,78</t>
+          <t>51,14; 60,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,98; 53,66</t>
+          <t>53,74; 61,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,22; 55,11</t>
+          <t>45,25; 55,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,61; 58,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,23; 65,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>47,91; 56,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>49,12; 56,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>51,87; 58,42</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>47,18; 55,43</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,68%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,63%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>55,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>52,94%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>52,15%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>50,8%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>49,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>46,04%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,4; 51,37</t>
+          <t>41,09; 51,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,04; 49,13</t>
+          <t>37,36; 49,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,52; 54,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,36; 61,18</t>
+          <t>34,57; 46,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,33; 60,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,21; 60,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,14; 65,33</t>
+          <t>51,34; 59,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,1; 68,25</t>
+          <t>50,13; 60,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,56; 55,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,23; 54,35</t>
+          <t>46,87; 58,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,13; 59,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,17; 63,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>47,5; 54,46</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>45,01; 53,52</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>42,11; 50,33</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>46,33%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52,16%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46,71%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>57,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>62,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>52,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>52,18%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>52,39%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>57,36%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>49,41%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43,53; 50,33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43,37; 49,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>48,85; 55,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43,15; 50,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>54,3; 59,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>55,62; 60,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>60,07; 64,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49,0; 54,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>49,79; 54,12</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>50,39; 54,34</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>55,4; 59,31</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>46,88; 51,84</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>168688</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>262960</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>442974</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>253130</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>268240</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>382548</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>624163</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>318308</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>436929</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>645508</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1067137</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>571438</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>124264; 205615</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>219893; 302775</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>381274; 492047</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>207742; 321411</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>234009; 299474</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>343989; 418140</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>581666; 666610</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>263112; 375240</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>381425; 487304</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>591076; 703963</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>992741; 1134603</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>497422; 661379</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>711.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>407712</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>542684</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>782489</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>486723</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>593052</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>747705</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>924564</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>585712</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1000765</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1290389</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1707053</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1072436</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>351945; 465259</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>481926; 608370</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>704786; 859398</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>423711; 565548</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>540808; 646339</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>693383; 797669</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>863846; 980948</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>525218; 642662</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>918189; 1073350</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1211075; 1376700</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1615194; 1812679</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>981380; 1159418</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>359705</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>414463</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>569524</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>431493</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>412563</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>530844</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>672672</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>448842</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>772269</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>945307</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1242195</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>880335</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>309387; 406379</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>370043; 461450</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>514780; 624583</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>380218; 494495</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>364871; 453409</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>481591; 573751</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>624279; 719456</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>404407; 499890</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>708357; 837630</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>877046; 1010525</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1168383; 1316014</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>812754; 954785</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>673199</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>374285</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>436070</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>774585</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>421417</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>520027</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1447784</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>795702</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>956097</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>598746; 749841</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>321355; 426872</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>378397; 507479</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>714978; 830060</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>382589; 462416</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>460408; 574467</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1353797; 1552005</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>730606; 868845</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>874598; 1045247</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>709.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>769.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>963.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1030.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>671.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1321.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1612.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1739.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1158.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1609305</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1594391</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1794987</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1607416</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2048440</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2082514</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2221397</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1872889</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3657745</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3676905</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4016384</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3480305</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1495966; 1729615</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1492550; 1697784</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1681330; 1898665</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1484926; 1744392</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1940709; 2138539</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1989618; 2168962</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2138963; 2301661</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1764908; 1980534</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3490451; 3793733</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3536637; 3813333</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3879404; 4152761</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>3301848; 3650899</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
